--- a/data/MSC/dcm/PlanoCurso_9280_Bioinformática Clínica.xlsx
+++ b/data/MSC/dcm/PlanoCurso_9280_Bioinformática Clínica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Library/CloudStorage/Dropbox/Toze/continUA/CE/levantamento CE/MSC/dcm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INFOUA\SIGACAD\auxFiles\Temp\Consultas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E117F23-543D-C24F-9C67-5B7152620E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B402C25-E826-4E4B-8E29-73F92633FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{270F9A69-3A7D-4721-99C2-5F6D88764B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270F9A69-3A7D-4721-99C2-5F6D88764B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="151">
   <si>
     <t>LABORATÓRIOS DE ESTATÍSTICA</t>
   </si>
@@ -450,6 +450,9 @@
     <t>Nº Total de Páginas: 1   (Num. Máx. Registos por Página: 150000)</t>
   </si>
   <si>
+    <t>Ramo 1 - Apoio à decisão clinica</t>
+  </si>
+  <si>
     <t>GENOMAS</t>
   </si>
   <si>
@@ -484,6 +487,9 @@
   </si>
   <si>
     <t>FOUNDATIONS OF DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>Ramo 2- Bioinformática do Genoma</t>
   </si>
 </sst>
 </file>
@@ -536,12 +542,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -556,13 +568,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -897,236 +912,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD399357-2DA9-40EA-94E5-4FA54BF03A16}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>41521</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>1.33</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>41523</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1159,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>3</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1204,15 +1138,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>41716</v>
+        <v>41523</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1242,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1272,13 +1206,13 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1290,15 +1224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>41771</v>
+        <v>41716</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1358,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1376,15 +1310,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>41774</v>
+        <v>41771</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1414,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1444,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1462,36 +1396,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>41607</v>
+        <v>41774</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1500,10 +1434,10 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1530,13 +1464,13 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1548,15 +1482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>41772</v>
+        <v>41607</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1634,15 +1568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1672,13 +1606,13 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1702,13 +1636,13 @@
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="X9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1720,15 +1654,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>41776</v>
+        <v>41775</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1761,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>3</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1788,13 +1722,13 @@
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1806,15 +1740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>49904</v>
+        <v>41776</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1847,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1871,7 +1805,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>25</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1883,15 +1826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>41532</v>
+        <v>49904</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1924,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1948,25 +1891,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="Z12">
-        <v>49904</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1975,15 +1903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47718</v>
+        <v>41532</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2016,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2043,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="X13" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="Z13">
         <v>49904</v>
@@ -2067,15 +1995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>42356</v>
+        <v>47718</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2105,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2135,13 +2063,13 @@
         <v>5</v>
       </c>
       <c r="W14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Y14" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Z14">
         <v>49904</v>
@@ -2159,15 +2087,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>41527</v>
+        <v>42356</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2197,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2227,13 +2155,13 @@
         <v>5</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z15">
         <v>49904</v>
@@ -2251,15 +2179,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41687</v>
+        <v>41527</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2319,13 +2247,13 @@
         <v>5</v>
       </c>
       <c r="W16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Z16">
         <v>49904</v>
@@ -2343,15 +2271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>47471</v>
+        <v>41687</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2411,13 +2339,13 @@
         <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Z17">
         <v>49904</v>
@@ -2435,15 +2363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>41349</v>
+        <v>47471</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2473,10 +2401,10 @@
         <v>4</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2503,13 +2431,13 @@
         <v>5</v>
       </c>
       <c r="W18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z18">
         <v>49904</v>
@@ -2527,15 +2455,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>41529</v>
+        <v>41349</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2565,10 +2493,10 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2595,13 +2523,13 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="X19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z19">
         <v>49904</v>
@@ -2619,15 +2547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>42355</v>
+        <v>41529</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2657,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2687,13 +2615,13 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z20">
         <v>49904</v>
@@ -2711,15 +2639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>41612</v>
+        <v>42355</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2749,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2803,15 +2731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41528</v>
+        <v>41612</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2844,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2871,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="W22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z22">
         <v>49904</v>
@@ -2895,36 +2823,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>49903</v>
+        <v>41528</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2942,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2962,8 +2890,23 @@
       <c r="V23" t="s">
         <v>5</v>
       </c>
+      <c r="W23" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>8</v>
+      </c>
       <c r="Z23">
-        <v>0</v>
+        <v>49904</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>40</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2972,15 +2915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>49991</v>
+        <v>49903</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2995,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3013,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3037,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3049,36 +2992,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>49931</v>
+        <v>49991</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3126,15 +3069,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>41604</v>
+        <v>49931</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3167,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3191,25 +3134,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" t="s">
-        <v>13</v>
-      </c>
-      <c r="X26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Z26">
-        <v>49931</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3218,15 +3146,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>48063</v>
+        <v>41604</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3256,10 +3184,10 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3286,13 +3214,13 @@
         <v>5</v>
       </c>
       <c r="W27" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="Z27">
         <v>49931</v>
@@ -3310,15 +3238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>41914</v>
+        <v>48063</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3348,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3378,13 +3306,13 @@
         <v>5</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Z28">
         <v>49931</v>
@@ -3402,15 +3330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>41796</v>
+        <v>41914</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3470,13 +3398,13 @@
         <v>5</v>
       </c>
       <c r="W29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Z29">
         <v>49931</v>
@@ -3494,15 +3422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>41344</v>
+        <v>41796</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3532,10 +3460,10 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.70000000000000007</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3562,13 +3490,13 @@
         <v>5</v>
       </c>
       <c r="W30" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="X30" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="Z30">
         <v>49931</v>
@@ -3586,15 +3514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>41527</v>
+        <v>41344</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3624,10 +3552,10 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -3654,13 +3582,13 @@
         <v>5</v>
       </c>
       <c r="W31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z31">
         <v>49931</v>
@@ -3678,15 +3606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>42191</v>
+        <v>41527</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3716,10 +3644,10 @@
         <v>4</v>
       </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>3</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3746,13 +3674,13 @@
         <v>5</v>
       </c>
       <c r="W32" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="X32" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="Z32">
         <v>49931</v>
@@ -3770,15 +3698,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>41777</v>
+        <v>42191</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3808,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3838,13 +3766,13 @@
         <v>5</v>
       </c>
       <c r="W33" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="X33" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="Y33" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="Z33">
         <v>49931</v>
@@ -3862,18 +3790,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>41521</v>
+        <v>41777</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -3900,16 +3828,16 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3930,2765 +3858,3027 @@
         <v>5</v>
       </c>
       <c r="W34" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z34">
+        <v>49931</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>41521</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>3</v>
+      </c>
+      <c r="P38" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="Z38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>41523</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
         <v>3</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
         <v>1.33</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="W39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>41716</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <v>6</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>41774</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
         <v>3</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X37" t="s">
+      <c r="X41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="Z41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41777</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38">
-        <v>6</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="Z42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>41614</v>
       </c>
-      <c r="B39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>6</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="G43" s="7">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>6</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="M43" s="7">
+        <v>1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>2</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="Z43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>41772</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>6</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="G44" s="7">
+        <v>2</v>
+      </c>
+      <c r="H44" s="7">
+        <v>6</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="M44" s="7">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7">
+        <v>2</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>41775</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>6</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>6</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
         <v>3</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="Z45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>41776</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F46" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>6</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="G46" s="7">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>6</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
         <v>3</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="Z46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>49904</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>6</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="G47" s="7">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>6</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>41529</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>6</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="G48" s="7">
+        <v>2</v>
+      </c>
+      <c r="H48" s="7">
+        <v>6</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>6</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
         <v>3</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="7">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>0</v>
+      </c>
+      <c r="U48" s="7">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z44">
+      <c r="Z48" s="7">
         <v>49904</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AA48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>47471</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="G49" s="7">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7">
+        <v>6</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>6</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
         <v>3</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>0</v>
+      </c>
+      <c r="U49" s="7">
+        <v>0</v>
+      </c>
+      <c r="V49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W45" t="s">
-        <v>6</v>
-      </c>
-      <c r="X45" t="s">
+      <c r="W49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z45">
+      <c r="Z49" s="7">
         <v>49904</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>41527</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F50" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>6</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="G50" s="7">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>6</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>6</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
         <v>3</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W46" t="s">
-        <v>6</v>
-      </c>
-      <c r="X46" t="s">
+      <c r="W50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z46">
+      <c r="Z50" s="7">
         <v>49904</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AA50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AB50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>41612</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="G51" s="7">
+        <v>2</v>
+      </c>
+      <c r="H51" s="7">
+        <v>6</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>6</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0</v>
+      </c>
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z47">
+      <c r="Z51" s="7">
         <v>49904</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>41349</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>6</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>6</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="G52" s="7">
+        <v>2</v>
+      </c>
+      <c r="H52" s="7">
+        <v>6</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>6</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
+        <v>2</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+      <c r="V52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Y52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z48">
+      <c r="Z52" s="7">
         <v>49904</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AA52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB52" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>41532</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>6</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="G53" s="7">
+        <v>2</v>
+      </c>
+      <c r="H53" s="7">
+        <v>6</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>6</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
         <v>3</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>0</v>
+      </c>
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W49" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="W53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z49">
+      <c r="Z53" s="7">
         <v>49904</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AA53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AB53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>41687</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="G54" s="7">
+        <v>2</v>
+      </c>
+      <c r="H54" s="7">
+        <v>6</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>6</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
         <v>3</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X54" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z50">
+      <c r="Z54" s="7">
         <v>49904</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AA54" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>47718</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F55" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>6</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="G55" s="7">
+        <v>2</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="7">
         <v>3</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0</v>
+      </c>
+      <c r="V55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X55" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y55" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Z51">
+      <c r="Z55" s="7">
         <v>49904</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AA55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AB55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>41528</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="G56" s="7">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7">
+        <v>6</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>6</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
         <v>3</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
         <v>1.33</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="7">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
+      <c r="U56" s="7">
+        <v>0</v>
+      </c>
+      <c r="V56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W52" t="s">
-        <v>6</v>
-      </c>
-      <c r="X52" t="s">
+      <c r="W56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Y56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z52">
+      <c r="Z56" s="7">
         <v>49904</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AA56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AB56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>42355</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>6</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>6</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="G57" s="7">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>6</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53" t="s">
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>2</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0</v>
+      </c>
+      <c r="V57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X53" t="s">
+      <c r="X57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z53">
+      <c r="Z57" s="7">
         <v>49904</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AA57" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AB57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>42356</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F58" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>6</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>6</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="G58" s="7">
+        <v>2</v>
+      </c>
+      <c r="H58" s="7">
+        <v>6</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>6</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="M58" s="7">
+        <v>1</v>
+      </c>
+      <c r="N58" s="7">
+        <v>2</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+      <c r="S58" s="7">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
+      </c>
+      <c r="U58" s="7">
+        <v>0</v>
+      </c>
+      <c r="V58" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z54">
+      <c r="Z58" s="7">
         <v>49904</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AA58" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>49903</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D59" s="7">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>6</v>
-      </c>
-      <c r="I55">
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>6</v>
+      </c>
+      <c r="I59" s="7">
         <v>3</v>
       </c>
-      <c r="J55">
+      <c r="J59" s="7">
         <v>3</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
         <v>3</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="7">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7">
+        <v>0</v>
+      </c>
+      <c r="U59" s="7">
+        <v>0</v>
+      </c>
+      <c r="V59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>49991</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D60" s="7">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
         <v>48</v>
       </c>
-      <c r="I56">
+      <c r="I60" s="7">
         <v>21</v>
       </c>
-      <c r="J56">
+      <c r="J60" s="7">
         <v>27</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="7">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7">
+        <v>0</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0</v>
+      </c>
+      <c r="V60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>49931</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D61" s="7">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>6</v>
-      </c>
-      <c r="I57">
-        <v>6</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
+        <v>6</v>
+      </c>
+      <c r="I61" s="7">
+        <v>6</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7">
+        <v>0</v>
+      </c>
+      <c r="U61" s="7">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>41474</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B62" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="C62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-      <c r="I58">
-        <v>6</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>6</v>
+      </c>
+      <c r="I62" s="7">
+        <v>6</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
         <v>3</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
+      <c r="V62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W58" t="s">
-        <v>6</v>
-      </c>
-      <c r="X58" t="s">
+      <c r="W62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z58">
+      <c r="Z62" s="7">
         <v>49931</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AA62" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AB62" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>47365</v>
       </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B63" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="C63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>6</v>
+      </c>
+      <c r="I63" s="7">
+        <v>6</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>1</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="M63" s="7">
+        <v>1</v>
+      </c>
+      <c r="N63" s="7">
+        <v>2</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+      <c r="V63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X59" t="s">
+      <c r="X63" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Y63" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z59">
+      <c r="Z63" s="7">
         <v>49931</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AA63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>41525</v>
       </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B64" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C64" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60">
-        <v>6</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <v>6</v>
+      </c>
+      <c r="I64" s="7">
+        <v>6</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="M64" s="7">
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
+        <v>2</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="7">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7">
+        <v>0</v>
+      </c>
+      <c r="U64" s="7">
+        <v>0</v>
+      </c>
+      <c r="V64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X60" t="s">
+      <c r="X64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Y64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z60">
+      <c r="Z64" s="7">
         <v>49931</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AA64" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AB64" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>41771</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="D65" s="7">
+        <v>2</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7">
+        <v>6</v>
+      </c>
+      <c r="I65" s="7">
+        <v>6</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <v>1</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0</v>
+      </c>
+      <c r="U65" s="7">
+        <v>0</v>
+      </c>
+      <c r="V65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X61" t="s">
+      <c r="X65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Y65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z61">
+      <c r="Z65" s="7">
         <v>49931</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AA65" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AB65" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>41527</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D66" s="7">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7">
+        <v>6</v>
+      </c>
+      <c r="I66" s="7">
+        <v>6</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
         <v>3</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62" t="s">
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="7">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7">
+        <v>0</v>
+      </c>
+      <c r="U66" s="7">
+        <v>0</v>
+      </c>
+      <c r="V66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W62" t="s">
-        <v>6</v>
-      </c>
-      <c r="X62" t="s">
+      <c r="W66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z62">
+      <c r="Z66" s="7">
         <v>49931</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AA66" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB66" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>47748</v>
       </c>
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>6</v>
-      </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
+        <v>6</v>
+      </c>
+      <c r="I67" s="7">
+        <v>6</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
+      <c r="M67" s="7">
+        <v>1</v>
+      </c>
+      <c r="N67" s="7">
+        <v>2</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7">
+        <v>0</v>
+      </c>
+      <c r="U67" s="7">
+        <v>0</v>
+      </c>
+      <c r="V67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W67" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="X63" t="s">
+      <c r="X67" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Y67" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Z63">
+      <c r="Z67" s="7">
         <v>49931</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AA67" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AB67" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
         <v>42280</v>
       </c>
-      <c r="B64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B68" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="C68" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-      <c r="I64">
-        <v>6</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>6</v>
+      </c>
+      <c r="I68" s="7">
+        <v>6</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
         <v>3</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64" t="s">
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0</v>
+      </c>
+      <c r="U68" s="7">
+        <v>0</v>
+      </c>
+      <c r="V68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W68" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y68" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z64">
+      <c r="Z68" s="7">
         <v>49931</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AA68" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB68" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>41796</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C69" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D69" s="7">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>6</v>
-      </c>
-      <c r="I65">
-        <v>6</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7">
+        <v>6</v>
+      </c>
+      <c r="I69" s="7">
+        <v>6</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
         <v>3</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65" t="s">
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <v>0</v>
+      </c>
+      <c r="U69" s="7">
+        <v>0</v>
+      </c>
+      <c r="V69" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W69" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="X65" t="s">
+      <c r="X69" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Y69" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Z65">
+      <c r="Z69" s="7">
         <v>49931</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AA69" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AB69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6703,29 +6893,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
